--- a/inst/dados_premissas/2022/custos.xlsx
+++ b/inst/dados_premissas/2022/custos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776AEA95-A166-48A8-B514-112ED4B54287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B179A-B835-4CF0-8213-1D6A15DA3A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="8">
   <si>
     <t>segmento</t>
   </si>
@@ -385,17 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -417,7 +419,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -428,7 +430,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -439,7 +441,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -450,7 +452,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -461,7 +463,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -472,7 +474,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -483,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -494,7 +496,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -505,7 +507,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -516,7 +518,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -527,7 +529,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -538,7 +540,7 @@
         <v>4.2635679999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -549,7 +551,7 @@
         <v>4.1407772415999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -560,7 +562,7 @@
         <v>4.0215228570419193</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -571,7 +573,7 @@
         <v>3.9057029987591116</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -582,7 +584,7 @@
         <v>3.7932187523948491</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -593,7 +595,7 @@
         <v>3.683974052325877</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -604,7 +606,7 @@
         <v>3.5778755996188916</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -615,7 +617,7 @@
         <v>3.5251649018507476</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -626,7 +628,7 @@
         <v>3.4732307592147889</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -637,7 +639,7 @@
         <v>3.4220617311894732</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -648,7 +650,7 @@
         <v>3.3716465457996083</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -659,7 +661,7 @@
         <v>3.3219740971332601</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -670,7 +672,7 @@
         <v>3.2730334428952408</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -681,7 +683,7 @@
         <v>3.224813801996643</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -692,7 +694,7 @@
         <v>3.1773045521798831</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -703,7 +705,7 @@
         <v>3.1304952276787348</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -714,7 +716,7 @@
         <v>3.0843755169128357</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -725,7 +727,7 @@
         <v>3.0434631830524577</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -736,7 +738,7 @@
         <v>3.0030935260006344</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -747,7 +749,7 @@
         <v>2.9632593474850908</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -758,7 +760,7 @@
         <v>2.9239535447141818</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -769,7 +771,7 @@
         <v>2.8851691091104015</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -780,7 +782,7 @@
         <v>2.8468991250606903</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -791,7 +793,7 @@
         <v>2.8091367686833189</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -802,7 +804,7 @@
         <v>2.7718753066111299</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -813,7 +815,7 @@
         <v>2.7351080947909172</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -824,1707 +826,2257 @@
         <v>2.6988285772987313</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B40">
+        <v>2051</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2052</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2053</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2054</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2055</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2056</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2057</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2058</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2059</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>2060</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.6988285772987313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
         <v>2013</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C50" s="1">
         <v>6.97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
         <v>2014</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C51" s="1">
         <v>7.85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
         <v>2015</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C52" s="1">
         <v>7.57</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C53" s="1">
         <v>6.73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
         <v>2017</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C54" s="1">
         <v>5.59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
         <v>2018</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C55" s="1">
         <v>5.01</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
         <v>2019</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C56" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
         <v>2020</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C57" s="1">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
         <v>2021</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C58" s="1">
         <v>4.21</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
         <v>2022</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C59" s="1">
         <v>4.16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
         <v>2023</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C60" s="1">
         <v>3.67</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
         <v>2024</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C61" s="1">
         <v>3.5643039999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
         <v>2025</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C62" s="1">
         <v>3.4616520447999997</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
         <v>2026</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C63" s="1">
         <v>3.3619564659097594</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
         <v>2027</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C64" s="1">
         <v>3.2651321196915584</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
         <v>2028</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C65" s="1">
         <v>3.1710963146444415</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
         <v>2029</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C66" s="1">
         <v>3.0797687407826815</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
         <v>2030</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C67" s="1">
         <v>2.9910714010481403</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
         <v>2031</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C68" s="1">
         <v>2.9470057379936785</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
         <v>2032</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C69" s="1">
         <v>2.9035892679540503</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
         <v>2033</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C70" s="1">
         <v>2.8608124267574881</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
         <v>2034</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C71" s="1">
         <v>2.8186657911354374</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
         <v>2035</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C72" s="1">
         <v>2.7771400766467131</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
         <v>2036</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C73" s="1">
         <v>2.7362261356322413</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
         <v>2037</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C74" s="1">
         <v>2.6959149551999282</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
         <v>2038</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C75" s="1">
         <v>2.6561976552392199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
         <v>2039</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C76" s="1">
         <v>2.6170654864649112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
         <v>2040</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C77" s="1">
         <v>2.5785098284897745</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
         <v>2041</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C78" s="1">
         <v>2.544307490160028</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
         <v>2042</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C79" s="1">
         <v>2.5105588246975699</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
         <v>2043</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C80" s="1">
         <v>2.4772578144123658</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
         <v>2044</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C81" s="1">
         <v>2.444398521435319</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
         <v>2045</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C82" s="1">
         <v>2.4119750866594933</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
         <v>2046</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C83" s="1">
         <v>2.3799817286953839</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
         <v>2047</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C84" s="1">
         <v>2.3484127428400416</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
         <v>2048</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C85" s="1">
         <v>2.3172625000598748</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
         <v>2049</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C86" s="1">
         <v>2.2865254459869404</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
         <v>2050</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C87" s="1">
         <v>2.2561960999285526</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>2051</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2052</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>2053</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>2054</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2055</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2056</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>2057</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>2058</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>2059</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>2060</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2.2561960999285526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98">
         <v>2013</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C98" s="1">
         <v>6.69</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
         <v>2014</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C99" s="1">
         <v>6.98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
         <v>2015</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C100" s="1">
         <v>6.86</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
         <v>2016</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C101" s="1">
         <v>6.16</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
         <v>2017</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C102" s="1">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
         <v>2018</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C103" s="1">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104">
         <v>2019</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C104" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
         <v>2020</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C105" s="1">
         <v>3.62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
         <v>2021</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C106" s="1">
         <v>3.81</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107">
         <v>2022</v>
       </c>
-      <c r="C87" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88">
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
         <v>2023</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C108" s="1">
         <v>3.84</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
         <v>2024</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C109" s="1">
         <v>3.7294079999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
         <v>2025</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C110" s="1">
         <v>3.6220010495999997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
         <v>2026</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C111" s="1">
         <v>3.5176874193715197</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
         <v>2027</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C112" s="1">
         <v>3.4163780216936197</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
         <v>2028</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C113" s="1">
         <v>3.3179863346688432</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
         <v>2029</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C114" s="1">
         <v>3.2224283282303805</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
         <v>2030</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C115" s="1">
         <v>3.1296223923773452</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116">
         <v>2031</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C116" s="1">
         <v>3.0835155405710415</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
         <v>2032</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C117" s="1">
         <v>3.0380879533906131</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118">
         <v>2033</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C118" s="1">
         <v>2.993329623637262</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
         <v>2034</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C119" s="1">
         <v>2.949230691542255</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
         <v>2035</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C120" s="1">
         <v>2.9057814425949253</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121">
         <v>2036</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C121" s="1">
         <v>2.8629723054026717</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
         <v>2037</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C122" s="1">
         <v>2.8207938495824858</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
         <v>2038</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C123" s="1">
         <v>2.779236783683543</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124">
         <v>2039</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C124" s="1">
         <v>2.7382919531403971</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
         <v>2040</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C125" s="1">
         <v>2.6979503382563306</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126">
         <v>2041</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C126" s="1">
         <v>2.6621636954262957</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127">
         <v>2042</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C127" s="1">
         <v>2.6268517402830152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
         <v>2043</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C128" s="1">
         <v>2.59200817638787</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
         <v>2044</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C129" s="1">
         <v>2.5576267908206054</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130">
         <v>2045</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C130" s="1">
         <v>2.5237014530715127</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131">
         <v>2046</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C131" s="1">
         <v>2.4902261139483026</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132">
         <v>2047</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C132" s="1">
         <v>2.4571948044974814</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133">
         <v>2048</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C133" s="1">
         <v>2.4246016349400312</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134">
         <v>2049</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C134" s="1">
         <v>2.392440793621212</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135">
         <v>2050</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C135" s="1">
         <v>2.3607065459742889</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>2051</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>2052</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>2053</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>2054</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>2055</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>2056</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>2057</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>2058</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144">
+        <v>2059</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>2060</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2.3607065459742889</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146">
         <v>2013</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C146" s="1">
         <v>6.8203246753246765</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147">
         <v>2014</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C147" s="1">
         <v>7.115974025974027</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148">
         <v>2015</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C148" s="1">
         <v>6.993636363636365</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
         <v>2016</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C149" s="1">
         <v>6.28</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
         <v>2017</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C150" s="1">
         <v>4.47</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
         <v>2018</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C151" s="1">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
         <v>2019</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C152" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153">
         <v>2020</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C153" s="1">
         <v>3.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
         <v>2021</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C154" s="1">
         <v>4.08</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
         <v>2022</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C155" s="1">
         <v>4.45</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156">
         <v>2023</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C156" s="1">
         <v>4.38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
         <v>2024</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C157" s="1">
         <v>4.2538559999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
         <v>2025</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C158" s="1">
         <v>4.1313449471999997</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
         <v>2026</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C159" s="1">
         <v>4.0123622127206398</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
         <v>2027</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C160" s="1">
         <v>3.8968061809942851</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
         <v>2028</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C161" s="1">
         <v>3.7845781629816497</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
         <v>2029</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C162" s="1">
         <v>3.6755823118877782</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
         <v>2030</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C163" s="1">
         <v>3.5697255413054099</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
         <v>2031</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C164" s="1">
         <v>3.517134913463845</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
         <v>2032</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C165" s="1">
         <v>3.4653190718361686</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166">
         <v>2033</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C166" s="1">
         <v>3.4142666019612524</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
         <v>2034</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C167" s="1">
         <v>3.363966257540385</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168">
         <v>2035</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C168" s="1">
         <v>3.3144069579598372</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
         <v>2036</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C169" s="1">
         <v>3.2655777858499229</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170">
         <v>2037</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C170" s="1">
         <v>3.2174679846800234</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171">
         <v>2038</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C171" s="1">
         <v>3.1700669563890416</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
         <v>2039</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C172" s="1">
         <v>3.1233642590507658</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
         <v>2040</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C173" s="1">
         <v>3.0773496045736275</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174">
         <v>2041</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C174" s="1">
         <v>3.0365304650956193</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175">
         <v>2042</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C175" s="1">
         <v>2.9962527662603149</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176">
         <v>2043</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C176" s="1">
         <v>2.9565093261924149</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177">
         <v>2044</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C177" s="1">
         <v>2.9172930582797538</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178">
         <v>2045</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C178" s="1">
         <v>2.8785969699096952</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179">
         <v>2046</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C179" s="1">
         <v>2.840414161222284</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
         <v>2047</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C180" s="1">
         <v>2.8027378238799407</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
         <v>2048</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C181" s="1">
         <v>2.7655612398534744</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182">
         <v>2049</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C182" s="1">
         <v>2.7288777802241961</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183">
         <v>2050</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C183" s="1">
         <v>2.6926809040019242</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>2051</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>2052</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>2053</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>2054</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>2055</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>2056</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>2057</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>2058</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <v>2059</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>2060</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2.6926809040019242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194">
         <v>2013</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C194" s="1">
         <v>7.7303680981595102</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195">
         <v>2014</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C195" s="1">
         <v>7.8371165644171796</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196">
         <v>2015</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C196" s="1">
         <v>7.6325153374233139</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197">
         <v>2016</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C197" s="1">
         <v>6.6806748466257675</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198">
         <v>2017</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C198" s="1">
         <v>5.8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
         <v>2018</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C199" s="1">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200">
         <v>2019</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C200" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201">
         <v>2020</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C201" s="1">
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202">
         <v>2021</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C202" s="1">
         <v>4.38</v>
       </c>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203">
         <v>2022</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C203" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204">
         <v>2023</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C204" s="1">
         <v>3.92</v>
       </c>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205">
         <v>2024</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C205" s="1">
         <v>3.8071039999999998</v>
       </c>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206">
         <v>2025</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C206" s="1">
         <v>3.6974594047999996</v>
       </c>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207">
         <v>2026</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C207" s="1">
         <v>3.5909725739417593</v>
       </c>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208">
         <v>2027</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C208" s="1">
         <v>3.4875525638122364</v>
       </c>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209">
         <v>2028</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C209" s="1">
         <v>3.3871110499744437</v>
       </c>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210">
         <v>2029</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C210" s="1">
         <v>3.2895622517351795</v>
       </c>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211">
         <v>2030</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C211" s="1">
         <v>3.1948228588852063</v>
       </c>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212">
         <v>2031</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C212" s="1">
         <v>3.1477554476662712</v>
       </c>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213">
         <v>2032</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C213" s="1">
         <v>3.101381452419584</v>
       </c>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
         <v>2033</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C214" s="1">
         <v>3.055690657463038</v>
       </c>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215">
         <v>2034</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C215" s="1">
         <v>3.010672997616052</v>
       </c>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176">
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216">
         <v>2035</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C216" s="1">
         <v>2.9663185559823195</v>
       </c>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217">
         <v>2036</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C217" s="1">
         <v>2.922617561765227</v>
       </c>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218">
         <v>2037</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C218" s="1">
         <v>2.8795603881154541</v>
       </c>
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219">
         <v>2038</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C219" s="1">
         <v>2.8371375500102833</v>
       </c>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220">
         <v>2039</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C220" s="1">
         <v>2.7953397021641555</v>
       </c>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221">
         <v>2040</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C221" s="1">
         <v>2.754157636970004</v>
       </c>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222">
         <v>2041</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C222" s="1">
         <v>2.7176254390810102</v>
       </c>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223">
         <v>2042</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C223" s="1">
         <v>2.6815778182055778</v>
       </c>
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224">
         <v>2043</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C224" s="1">
         <v>2.6460083467292836</v>
       </c>
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225">
         <v>2044</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C225" s="1">
         <v>2.6109106822960348</v>
       </c>
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226">
         <v>2045</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C226" s="1">
         <v>2.5762785666771695</v>
       </c>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187">
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227">
         <v>2046</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C227" s="1">
         <v>2.5421058246555592</v>
       </c>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228">
         <v>2047</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C228" s="1">
         <v>2.5083863629245124</v>
       </c>
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229">
         <v>2048</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C229" s="1">
         <v>2.4751141690012823</v>
       </c>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230">
         <v>2049</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C230" s="1">
         <v>2.4422833101549877</v>
       </c>
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231">
         <v>2050</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C231" s="1">
         <v>2.4098879323487536</v>
       </c>
-      <c r="E191" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>2051</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>2052</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>2053</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>2054</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>2055</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>2056</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238">
+        <v>2057</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>2058</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>2059</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2.4098879323487536</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>2060</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2.4098879323487536</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
